--- a/verification/15.hutaotao.xlsx
+++ b/verification/15.hutaotao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangtiansheng/Documents/GitHub/xinhua/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hutaotao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655EC85C-8943-DE49-855E-48AAF074E17A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82BAE0B-BB85-43F0-80C0-1DA9B6222DF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{F93EF51D-3B39-9D4A-B996-840B0624D1E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F93EF51D-3B39-9D4A-B996-840B0624D1E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>web_site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,13 +74,197 @@
   <si>
     <t>核验日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朔州市人民政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shuozhou.gov.cn/xxgk/zfwj/</t>
+  </si>
+  <si>
+    <t>http://fgw.shuozhou.gov.cn/zcfg/</t>
+  </si>
+  <si>
+    <t>朔州市发改委</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73-1863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋中市人民政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sxjz.gov.cn/publicity/zfwj</t>
+  </si>
+  <si>
+    <t>73-1864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋中市发改委</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://fgw.sxjz.gov.cn/bgxz</t>
+  </si>
+  <si>
+    <t>运城市人民政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运城市发改委</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yuncheng.gov.cn/zwgk_1/xxgkml/fgwj/mhlist.shtml</t>
+  </si>
+  <si>
+    <t>https://fgw.yuncheng.gov.cn/item/1369_1.shtml</t>
+  </si>
+  <si>
+    <t>已报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73-1584</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忻州市人民政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忻州市发改委</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://zwgk.sxxz.gov.cn/xzsrmzf/wj/</t>
+  </si>
+  <si>
+    <t>http://fgw.sxxz.gov.cn/wnwj/</t>
+  </si>
+  <si>
+    <t>1页和2页有个重复，13页和16页一条数据重复，19页和21页一条数据重复，21页和25页一条数据重复，2页和四页一条数据重复，8页和19页一条数据重复，9页和28页一条数据重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7条数据标题重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2条内容重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9也内2条数据重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4条内容重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2页和1页四条数据重复，2页内一条数据与其他数据重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73-1748</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73-1585</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市人民政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市发改委</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临汾市人民政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临汾市发改委</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.linfen.gov.cn/channels/255.html</t>
+  </si>
+  <si>
+    <t>http://www.linfen.gov.cn/fagaiwei/channels/1894.html</t>
+  </si>
+  <si>
+    <t>http://www.gz.gov.cn/zwgk/fggw/index.html</t>
+  </si>
+  <si>
+    <t>http://fgw.gz.gov.cn/gkmlpt/index#479</t>
+  </si>
+  <si>
+    <t>73-1581</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73-1883</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73-1749</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韶关市人民政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韶关市发改委</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sg.gov.cn/zw/zcfg/gjszcfg/</t>
+  </si>
+  <si>
+    <t>http://fgj.sg.gov.cn/fgzq/zcfg/index.html</t>
+  </si>
+  <si>
+    <t>深圳市政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市发改委</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sz.gov.cn/cn/xxgk/zfxxgj/zcfg/szsfg/index.html</t>
+  </si>
+  <si>
+    <t>http://fgw.sz.gov.cn/zwgk/zcfg/zcfg/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +275,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -114,21 +307,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -147,13 +357,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>331820</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>332180</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
@@ -537,67 +747,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0204A7A-0F64-3949-AB7D-A522D658028A}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="59.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="19.1640625" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" customWidth="1"/>
+    <col min="1" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" customWidth="1"/>
+    <col min="7" max="7" width="59.36328125" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" style="1"/>
+    <col min="11" max="11" width="17.81640625" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" customWidth="1"/>
+    <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44018</v>
+      </c>
+      <c r="I2" s="1">
+        <v>630</v>
+      </c>
+      <c r="J2" s="1">
+        <v>623</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="D3" s="2">
+        <v>44018</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44020</v>
+      </c>
+      <c r="I3" s="1">
+        <v>33</v>
+      </c>
+      <c r="J3" s="1">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44020</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44021</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="D5" s="2">
+        <v>44020</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44021</v>
+      </c>
+      <c r="I5" s="1">
+        <v>91</v>
+      </c>
+      <c r="J5" s="1">
+        <v>89</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44019</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44020</v>
+      </c>
+      <c r="I6" s="1">
+        <v>47</v>
+      </c>
+      <c r="J6" s="1">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="D7" s="2">
+        <v>44019</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44020</v>
+      </c>
+      <c r="I7" s="1">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44020</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="D9" s="2">
+        <v>44020</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44021</v>
+      </c>
+      <c r="I9" s="1">
+        <v>366</v>
+      </c>
+      <c r="J9" s="1">
+        <v>361</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44021</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="D11" s="2">
+        <v>44021</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44022</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="D13" s="2">
+        <v>44022</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="2">
+        <v>44022</v>
+      </c>
+      <c r="I13" s="1">
+        <v>61</v>
+      </c>
+      <c r="J13" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44022</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="2">
+        <v>44022</v>
+      </c>
+      <c r="I14" s="1">
+        <v>240</v>
+      </c>
+      <c r="J14" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="D15" s="2">
+        <v>44022</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="2">
+        <v>44022</v>
+      </c>
+      <c r="I15" s="1">
+        <v>63</v>
+      </c>
+      <c r="J15" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44022</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="2">
+        <v>44022</v>
+      </c>
+      <c r="I16" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="D17" s="2">
+        <v>44022</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="2">
+        <v>44022</v>
+      </c>
+      <c r="I17" s="1">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{50EDACC0-AAA5-42A0-B763-06AC0D548D0F}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{BCB0BB2E-535B-4A13-A734-B7ACD50D7BD6}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{657A3444-C374-4406-8FDC-E7F162E3CE25}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{9BDA1FA4-B2FF-4E67-90B7-0462F39C18CA}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{7948F011-7E7E-410E-A303-243280AECB67}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{5327702E-5D88-42B2-9118-451131B50F7A}"/>
+    <hyperlink ref="G12" r:id="rId7" xr:uid="{076B8616-4F0A-4CF9-BCE6-027B8D417995}"/>
+    <hyperlink ref="G13" r:id="rId8" xr:uid="{FDBBCDF6-F43A-4E48-A44B-162D88B58AA2}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{318F2ABC-40D3-4306-AA85-8CD135A50EC8}"/>
+    <hyperlink ref="G11" r:id="rId10" location="479" display="http://fgw.gz.gov.cn/gkmlpt/index - 479" xr:uid="{7918A045-AD94-4D2D-9B7B-C59FD9C97AA7}"/>
+    <hyperlink ref="G14" r:id="rId11" xr:uid="{92DDB572-7C50-48FD-836B-992F4BF3CC58}"/>
+    <hyperlink ref="G15" r:id="rId12" xr:uid="{B2CAD649-C44A-45AD-BE2A-4CF566D39D31}"/>
+    <hyperlink ref="G16" r:id="rId13" xr:uid="{885F84B3-207D-4FBD-BF9D-FA638DBB3B8D}"/>
+    <hyperlink ref="G17" r:id="rId14" xr:uid="{8F4F8977-270B-4917-80DF-9CB10100C799}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>